--- a/stock_historical_data/1wk/SHILCTECH.BO.xlsx
+++ b/stock_historical_data/1wk/SHILCTECH.BO.xlsx
@@ -61311,7 +61311,9 @@
       <c r="P1148" t="n">
         <v>0</v>
       </c>
-      <c r="Q1148" t="inlineStr"/>
+      <c r="Q1148" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SHILCTECH.BO.xlsx
+++ b/stock_historical_data/1wk/SHILCTECH.BO.xlsx
@@ -64813,7 +64813,9 @@
       <c r="Q1149" t="n">
         <v>0</v>
       </c>
-      <c r="R1149" t="inlineStr"/>
+      <c r="R1149" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SHILCTECH.BO.xlsx
+++ b/stock_historical_data/1wk/SHILCTECH.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1149"/>
+  <dimension ref="A1:R1151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64817,6 +64817,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1150">
+      <c r="A1150" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1150" t="n">
+        <v>5582</v>
+      </c>
+      <c r="C1150" t="n">
+        <v>5677</v>
+      </c>
+      <c r="D1150" t="n">
+        <v>5100.14990234375</v>
+      </c>
+      <c r="E1150" t="n">
+        <v>5310.2998046875</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>5310.2998046875</v>
+      </c>
+      <c r="G1150" t="n">
+        <v>38093</v>
+      </c>
+      <c r="H1150" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1150" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1150" t="inlineStr"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1151" t="n">
+        <v>5310</v>
+      </c>
+      <c r="C1151" t="n">
+        <v>5521.14990234375</v>
+      </c>
+      <c r="D1151" t="n">
+        <v>5100</v>
+      </c>
+      <c r="E1151" t="n">
+        <v>5521.14990234375</v>
+      </c>
+      <c r="F1151" t="n">
+        <v>5521.14990234375</v>
+      </c>
+      <c r="G1151" t="n">
+        <v>54758</v>
+      </c>
+      <c r="H1151" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1151" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1151" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/SHILCTECH.BO.xlsx
+++ b/stock_historical_data/1wk/SHILCTECH.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1151"/>
+  <dimension ref="A1:R1160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64749,7 +64749,7 @@
         <v>23</v>
       </c>
       <c r="O1148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1148" t="n">
         <v>0</v>
@@ -64869,7 +64869,9 @@
       <c r="Q1150" t="n">
         <v>0</v>
       </c>
-      <c r="R1150" t="inlineStr"/>
+      <c r="R1150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1151">
       <c r="A1151" s="2" t="n">
@@ -64923,7 +64925,477 @@
       <c r="Q1151" t="n">
         <v>0</v>
       </c>
-      <c r="R1151" t="inlineStr"/>
+      <c r="R1151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1152" t="n">
+        <v>7635</v>
+      </c>
+      <c r="C1152" t="n">
+        <v>8690</v>
+      </c>
+      <c r="D1152" t="n">
+        <v>7285</v>
+      </c>
+      <c r="E1152" t="n">
+        <v>8429.2998046875</v>
+      </c>
+      <c r="F1152" t="inlineStr"/>
+      <c r="G1152" t="n">
+        <v>58910</v>
+      </c>
+      <c r="H1152" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1152" t="inlineStr"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1153" t="n">
+        <v>8520</v>
+      </c>
+      <c r="C1153" t="n">
+        <v>8860</v>
+      </c>
+      <c r="D1153" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E1153" t="n">
+        <v>8322.4501953125</v>
+      </c>
+      <c r="F1153" t="inlineStr"/>
+      <c r="G1153" t="n">
+        <v>61731</v>
+      </c>
+      <c r="H1153" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1153" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1153" t="inlineStr"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1154" t="n">
+        <v>8100.0498046875</v>
+      </c>
+      <c r="C1154" t="n">
+        <v>8392.75</v>
+      </c>
+      <c r="D1154" t="n">
+        <v>7612.14990234375</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>8173.35009765625</v>
+      </c>
+      <c r="F1154" t="inlineStr"/>
+      <c r="G1154" t="n">
+        <v>43822</v>
+      </c>
+      <c r="H1154" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1154" t="inlineStr"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1155" t="n">
+        <v>8295.7001953125</v>
+      </c>
+      <c r="C1155" t="n">
+        <v>8295.7001953125</v>
+      </c>
+      <c r="D1155" t="n">
+        <v>7159.60009765625</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>7159.60009765625</v>
+      </c>
+      <c r="F1155" t="inlineStr"/>
+      <c r="G1155" t="n">
+        <v>39330</v>
+      </c>
+      <c r="H1155" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1155" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1155" t="inlineStr"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1156" t="n">
+        <v>6905.14990234375</v>
+      </c>
+      <c r="C1156" t="n">
+        <v>7141.2001953125</v>
+      </c>
+      <c r="D1156" t="n">
+        <v>6204.25</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>6413.25</v>
+      </c>
+      <c r="F1156" t="inlineStr"/>
+      <c r="G1156" t="n">
+        <v>156488</v>
+      </c>
+      <c r="H1156" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1156" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1156" t="inlineStr"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1157" t="n">
+        <v>6150.14990234375</v>
+      </c>
+      <c r="C1157" t="n">
+        <v>6635</v>
+      </c>
+      <c r="D1157" t="n">
+        <v>5788</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>6262.2998046875</v>
+      </c>
+      <c r="F1157" t="inlineStr"/>
+      <c r="G1157" t="n">
+        <v>139655</v>
+      </c>
+      <c r="H1157" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1157" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1157" t="inlineStr"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1158" t="n">
+        <v>6350</v>
+      </c>
+      <c r="C1158" t="n">
+        <v>6350</v>
+      </c>
+      <c r="D1158" t="n">
+        <v>5408.89990234375</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>5485.35009765625</v>
+      </c>
+      <c r="F1158" t="inlineStr"/>
+      <c r="G1158" t="n">
+        <v>96492</v>
+      </c>
+      <c r="H1158" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1158" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1158" t="inlineStr"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1159" t="n">
+        <v>5320.5</v>
+      </c>
+      <c r="C1159" t="n">
+        <v>5546.89990234375</v>
+      </c>
+      <c r="D1159" t="n">
+        <v>4703.0498046875</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>5546.2001953125</v>
+      </c>
+      <c r="F1159" t="inlineStr"/>
+      <c r="G1159" t="n">
+        <v>123100</v>
+      </c>
+      <c r="H1159" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1159" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1159" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1159" t="inlineStr"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1160" t="n">
+        <v>5370</v>
+      </c>
+      <c r="C1160" t="n">
+        <v>6340</v>
+      </c>
+      <c r="D1160" t="n">
+        <v>5370</v>
+      </c>
+      <c r="E1160" t="n">
+        <v>5518.5498046875</v>
+      </c>
+      <c r="F1160" t="inlineStr"/>
+      <c r="G1160" t="n">
+        <v>51100</v>
+      </c>
+      <c r="H1160" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1160" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1160" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/SHILCTECH.BO.xlsx
+++ b/stock_historical_data/1wk/SHILCTECH.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1160"/>
+  <dimension ref="A1:R1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64979,7 +64979,9 @@
       <c r="Q1152" t="n">
         <v>0</v>
       </c>
-      <c r="R1152" t="inlineStr"/>
+      <c r="R1152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" s="2" t="n">
@@ -65031,7 +65033,9 @@
       <c r="Q1153" t="n">
         <v>0</v>
       </c>
-      <c r="R1153" t="inlineStr"/>
+      <c r="R1153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1154">
       <c r="A1154" s="2" t="n">
@@ -65083,7 +65087,9 @@
       <c r="Q1154" t="n">
         <v>1</v>
       </c>
-      <c r="R1154" t="inlineStr"/>
+      <c r="R1154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1155">
       <c r="A1155" s="2" t="n">
@@ -65135,7 +65141,9 @@
       <c r="Q1155" t="n">
         <v>0</v>
       </c>
-      <c r="R1155" t="inlineStr"/>
+      <c r="R1155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1156">
       <c r="A1156" s="2" t="n">
@@ -65187,7 +65195,9 @@
       <c r="Q1156" t="n">
         <v>0</v>
       </c>
-      <c r="R1156" t="inlineStr"/>
+      <c r="R1156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1157">
       <c r="A1157" s="2" t="n">
@@ -65239,7 +65249,9 @@
       <c r="Q1157" t="n">
         <v>0</v>
       </c>
-      <c r="R1157" t="inlineStr"/>
+      <c r="R1157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" s="2" t="n">
@@ -65291,7 +65303,9 @@
       <c r="Q1158" t="n">
         <v>0</v>
       </c>
-      <c r="R1158" t="inlineStr"/>
+      <c r="R1158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" s="2" t="n">
@@ -65335,7 +65349,7 @@
         <v>8</v>
       </c>
       <c r="O1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1159" t="n">
         <v>0</v>
@@ -65343,7 +65357,9 @@
       <c r="Q1159" t="n">
         <v>2</v>
       </c>
-      <c r="R1159" t="inlineStr"/>
+      <c r="R1159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" s="2" t="n">
@@ -65395,7 +65411,477 @@
       <c r="Q1160" t="n">
         <v>0</v>
       </c>
-      <c r="R1160" t="inlineStr"/>
+      <c r="R1160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1161" t="n">
+        <v>5330</v>
+      </c>
+      <c r="C1161" t="n">
+        <v>6101.14990234375</v>
+      </c>
+      <c r="D1161" t="n">
+        <v>5106.14990234375</v>
+      </c>
+      <c r="E1161" t="n">
+        <v>6070.25</v>
+      </c>
+      <c r="F1161" t="inlineStr"/>
+      <c r="G1161" t="n">
+        <v>104841</v>
+      </c>
+      <c r="H1161" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1161" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1161" t="inlineStr"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1162" t="n">
+        <v>5861.64990234375</v>
+      </c>
+      <c r="C1162" t="n">
+        <v>6158</v>
+      </c>
+      <c r="D1162" t="n">
+        <v>5225.5498046875</v>
+      </c>
+      <c r="E1162" t="n">
+        <v>5308</v>
+      </c>
+      <c r="F1162" t="inlineStr"/>
+      <c r="G1162" t="n">
+        <v>55714</v>
+      </c>
+      <c r="H1162" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1162" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1162" t="inlineStr"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1163" t="n">
+        <v>5369.9501953125</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>5740</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>4958</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>5688.2998046875</v>
+      </c>
+      <c r="F1163" t="inlineStr"/>
+      <c r="G1163" t="n">
+        <v>127377</v>
+      </c>
+      <c r="H1163" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1163" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1163" t="inlineStr"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1164" t="n">
+        <v>5788</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>5869.9501953125</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>5098.0498046875</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>5270.2001953125</v>
+      </c>
+      <c r="F1164" t="inlineStr"/>
+      <c r="G1164" t="n">
+        <v>97370</v>
+      </c>
+      <c r="H1164" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1164" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1164" t="inlineStr"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1165" t="n">
+        <v>5260</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>5544.89990234375</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>4988.64990234375</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>4988.64990234375</v>
+      </c>
+      <c r="F1165" t="inlineStr"/>
+      <c r="G1165" t="n">
+        <v>81117</v>
+      </c>
+      <c r="H1165" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1165" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1165" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1165" t="inlineStr"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1166" t="n">
+        <v>4489.7998046875</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>5120.5498046875</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>4206</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>5120.5498046875</v>
+      </c>
+      <c r="F1166" t="inlineStr"/>
+      <c r="G1166" t="n">
+        <v>122983</v>
+      </c>
+      <c r="H1166" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1166" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1166" t="inlineStr"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1167" t="n">
+        <v>5410.5498046875</v>
+      </c>
+      <c r="C1167" t="n">
+        <v>6167</v>
+      </c>
+      <c r="D1167" t="n">
+        <v>5325.2001953125</v>
+      </c>
+      <c r="E1167" t="n">
+        <v>6084.4501953125</v>
+      </c>
+      <c r="F1167" t="inlineStr"/>
+      <c r="G1167" t="n">
+        <v>153704</v>
+      </c>
+      <c r="H1167" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1167" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1167" t="inlineStr"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1168" t="n">
+        <v>6388.64990234375</v>
+      </c>
+      <c r="C1168" t="n">
+        <v>7325</v>
+      </c>
+      <c r="D1168" t="n">
+        <v>6388.64990234375</v>
+      </c>
+      <c r="E1168" t="n">
+        <v>6677.4501953125</v>
+      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="n">
+        <v>256520</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1168" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1168" t="inlineStr"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1169" t="n">
+        <v>6636</v>
+      </c>
+      <c r="C1169" t="n">
+        <v>7140</v>
+      </c>
+      <c r="D1169" t="n">
+        <v>6477.4501953125</v>
+      </c>
+      <c r="E1169" t="n">
+        <v>6605.75</v>
+      </c>
+      <c r="F1169" t="inlineStr"/>
+      <c r="G1169" t="n">
+        <v>97579</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1169" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1169" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
